--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/15/seed3/result_data_KNN.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.41</v>
+        <v>-12.526</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.412</v>
+        <v>-22.188</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.556</v>
+        <v>-21.736</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.683</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.218</v>
+        <v>-13.636</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.632</v>
+        <v>-21.784</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-10.21</v>
+        <v>-10.732</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.01</v>
+        <v>-12.46</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.186</v>
+        <v>-12.124</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.672</v>
+        <v>-13.347</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.16</v>
+        <v>-13.358</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.918</v>
+        <v>-20.029</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.988</v>
+        <v>-12.782</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-12.836</v>
+        <v>-13.326</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.168</v>
+        <v>-21.868</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.612</v>
+        <v>-21.736</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.004</v>
+        <v>-11.001</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.364</v>
+        <v>-13.045</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.628</v>
+        <v>-20.843</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.69</v>
+        <v>-19.951</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.038</v>
+        <v>-21.869</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.106</v>
+        <v>-22.152</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-12.72</v>
+        <v>-13.416</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-13.082</v>
+        <v>-12.985</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-13.07</v>
+        <v>-12.894</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.484</v>
+        <v>-13.23</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,7 +2151,7 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.138</v>
+        <v>-13.048</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.192</v>
+        <v>-13.091</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
